--- a/TravelBuddy/inputFile.xlsx
+++ b/TravelBuddy/inputFile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\Anul 3\RPA\TravelBuddyRobot\TravelBuddy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71904E19-CDAD-4C1A-A71A-8AA9E8AAFE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +46,6 @@
     <t>Bucuresti</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>10-Februarie-2022</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Română</t>
   </si>
   <si>
-    <t>RON</t>
-  </si>
-  <si>
     <t>Check in Date</t>
   </si>
   <si>
@@ -65,12 +65,18 @@
   </si>
   <si>
     <t>Children Ages</t>
+  </si>
+  <si>
+    <t>Copenhaga</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,12 +118,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,28 +445,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -443,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -455,18 +498,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -475,16 +518,16 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
